--- a/Result/Results.xlsx
+++ b/Result/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51806366-7503-47D7-853E-A3559A0F47B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7659E2-C8C3-42F6-88A7-3473296489AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -191,9 +188,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -210,9 +204,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,56 +503,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -576,7 +576,7 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -600,7 +600,7 @@
       <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -624,794 +624,794 @@
       <c r="X2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0.49</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0.59</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>0.36</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.45</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.83</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>0.8</v>
       </c>
-      <c r="I3" s="12">
-        <f>_xlfn.STDEV.P(B3:H3)</f>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I11" si="0">_xlfn.STDEV.P(B3:H3)</f>
         <v>0.16269415402866197</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>0.39</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>0.23</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>0.35</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.95</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>0.75</v>
       </c>
-      <c r="Q3" s="12">
-        <f>_xlfn.STDEV.P(J3:P3)</f>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q11" si="1">_xlfn.STDEV.P(J3:P3)</f>
         <v>0.22924899572477167</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="10">
         <v>0.67</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="10">
         <v>0.63</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="10">
         <v>0.54</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="10">
         <v>0.83</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="10">
         <v>0.63</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="10">
         <v>0.74</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="10">
         <v>0.86</v>
       </c>
-      <c r="Y3" s="12">
-        <f>_xlfn.STDEV.P(R3:X3)</f>
+      <c r="Y3" s="10">
+        <f t="shared" ref="Y3:Y11" si="2">_xlfn.STDEV.P(R3:X3)</f>
         <v>0.10717142476291988</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10">
         <v>70</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0.42</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0.38</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.41</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0.15</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>0.4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>0.75</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>0.75</v>
       </c>
-      <c r="I4" s="12">
-        <f>_xlfn.STDEV.P(B4:H4)</f>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
         <v>0.19934586905728469</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>0.35</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>0.31</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>0.49</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>0.08</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>0.34</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>0.94</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q4" s="12">
-        <f>_xlfn.STDEV.P(J4:P4)</f>
+      <c r="Q4" s="10">
+        <f t="shared" si="1"/>
         <v>0.27055498516937365</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="10">
         <v>0.51</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <v>0.49</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="10">
         <v>0.35</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="10">
         <v>0.76</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="10">
         <v>0.47</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="10">
         <v>0.63</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="10">
         <v>0.48</v>
       </c>
-      <c r="Y4" s="12">
-        <f>_xlfn.STDEV.P(R4:X4)</f>
+      <c r="Y4" s="10">
+        <f t="shared" si="2"/>
         <v>0.12150417814265652</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12">
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10">
         <v>57</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0.76</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>0.74</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.78</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0.73</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>0.63</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.93</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.93</v>
       </c>
-      <c r="I5" s="12">
-        <f>_xlfn.STDEV.P(B5:H5)</f>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
         <v>0.10125740083811073</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>0.71</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>0.76</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>0.73</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>0.61</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>0.77</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>0.93</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>0.65</v>
       </c>
-      <c r="Q5" s="12">
-        <f>_xlfn.STDEV.P(J5:P5)</f>
+      <c r="Q5" s="10">
+        <f t="shared" si="1"/>
         <v>9.5126124654779626E-2</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>0.82</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>0.73</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <v>0.83</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <v>0.92</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="10">
         <v>0.53</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <v>0.93</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y5" s="12">
-        <f>_xlfn.STDEV.P(R5:X5)</f>
+      <c r="Y5" s="10">
+        <f t="shared" si="2"/>
         <v>0.13424011383809745</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12">
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10">
         <v>86</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>0.79</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>0.79</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>0.8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.74</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>0.65</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.92</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>0.92</v>
       </c>
-      <c r="I6" s="12">
-        <f>_xlfn.STDEV.P(B6:H6)</f>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
         <v>8.8709569692914034E-2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>0.79</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>0.8</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>0.8</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>0.67</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>0.68</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>0.91</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="Q6" s="12">
-        <f>_xlfn.STDEV.P(J6:P6)</f>
+      <c r="Q6" s="10">
+        <f t="shared" si="1"/>
         <v>0.10898417784434698</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <v>0.79</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="10">
         <v>0.78</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="10">
         <v>0.81</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="10">
         <v>0.83</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="10">
         <v>0.62</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="10">
         <v>0.92</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y6" s="12">
-        <f>_xlfn.STDEV.P(R6:X6)</f>
+      <c r="Y6" s="10">
+        <f t="shared" si="2"/>
         <v>9.5831484749991286E-2</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10">
         <v>86</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>0.6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>0.72</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.61</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.75</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>0.47</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.89</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>0.89</v>
       </c>
-      <c r="I7" s="12">
-        <f>_xlfn.STDEV.P(B7:H7)</f>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
         <v>0.14440589054636957</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>0.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>0.62</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>0.6</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>0.42</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>0.96</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <v>0.81</v>
       </c>
-      <c r="Q7" s="12">
-        <f>_xlfn.STDEV.P(J7:P7)</f>
+      <c r="Q7" s="10">
+        <f t="shared" si="1"/>
         <v>0.17293386727006244</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="10">
         <v>0.76</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="10">
         <v>0.84</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="10">
         <v>0.68</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="10">
         <v>1</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="10">
         <v>0.52</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="10">
         <v>0.82</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y7" s="12">
-        <f>_xlfn.STDEV.P(R7:X7)</f>
+      <c r="Y7" s="10">
+        <f t="shared" si="2"/>
         <v>0.14781400336854686</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12">
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10">
         <v>78</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AB7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>0.72</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0.76</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.75</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>0.92</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>0.92</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>0.92</v>
       </c>
-      <c r="I8" s="12">
-        <f>_xlfn.STDEV.P(B8:H8)</f>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
         <v>0.1206952647736252</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>0.71</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>0.82</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>0.68</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>0.92</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>0.94</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <v>0.62</v>
       </c>
-      <c r="Q8" s="12">
-        <f>_xlfn.STDEV.P(J8:P8)</f>
+      <c r="Q8" s="10">
+        <f t="shared" si="1"/>
         <v>0.13399664936414041</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="10">
         <v>0.73</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="10">
         <v>0.71</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="10">
         <v>0.83</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="10">
         <v>0.92</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="10">
         <v>0.59</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="10">
         <v>0.9</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y8" s="12">
-        <f>_xlfn.STDEV.P(R8:X8)</f>
+      <c r="Y8" s="10">
+        <f t="shared" si="2"/>
         <v>0.11909522857523652</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12">
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10">
         <v>84</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>0.68</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>0.79</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0.66</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>0.78</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>0.54</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.9</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.9</v>
       </c>
-      <c r="I9" s="12">
-        <f>_xlfn.STDEV.P(B9:H9)</f>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
         <v>0.12224097980160735</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>0.66</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>0.72</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <v>0.6</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>0.82</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>0.5</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>0.94</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <v>0.78</v>
       </c>
-      <c r="Q9" s="12">
-        <f>_xlfn.STDEV.P(J9:P9)</f>
+      <c r="Q9" s="10">
+        <f t="shared" si="1"/>
         <v>0.13540566412654551</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="10">
         <v>0.7</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="10">
         <v>0.86</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="10">
         <v>0.72</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="10">
         <v>0.75</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="10">
         <v>0.86</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="10">
         <v>1</v>
       </c>
-      <c r="Y9" s="12">
-        <f>_xlfn.STDEV.P(R9:X9)</f>
+      <c r="Y9" s="10">
+        <f t="shared" si="2"/>
         <v>0.12653949935873407</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12">
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10">
         <v>81</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>0.84</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>0.77</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.81</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0.83</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>0.69</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.94</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>0.94</v>
       </c>
-      <c r="I10" s="12">
-        <f>_xlfn.STDEV.P(B10:H10)</f>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
         <v>8.2709227577886443E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>0.82</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>0.79</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>0.84</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>0.83</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>0.75</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>0.92</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>0.93</v>
       </c>
-      <c r="Q10" s="13">
-        <f>_xlfn.STDEV.P(J10:P10)</f>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
         <v>6.0474315681476376E-2</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="10">
         <v>0.85</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="10">
         <v>0.75</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="10">
         <v>0.78</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="10">
         <v>0.83</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="10">
         <v>0.63</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="10">
         <v>0.96</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="10">
         <v>1</v>
       </c>
-      <c r="Y10" s="12">
-        <f>_xlfn.STDEV.P(R10:X10)</f>
+      <c r="Y10" s="10">
+        <f t="shared" si="2"/>
         <v>0.11654901745354916</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12">
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10">
         <v>89</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AB10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>0.77</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>0.83</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>0.83</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.64</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>0.75</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>0.94</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>0.7</v>
       </c>
-      <c r="I11" s="12">
-        <f>_xlfn.STDEV.P(B11:H11)</f>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
         <v>9.0711473522214342E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>0.73</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>0.83</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>0.88</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>0.62</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>0.8</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>0.93</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q11" s="13">
-        <f>_xlfn.STDEV.P(J11:P11)</f>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
         <v>0.12315578321286987</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <v>0.82</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <v>0.84</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="11">
         <v>0.81</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="11">
         <v>0.67</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="11">
         <v>0.7</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="11">
         <v>0.95</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="11">
         <v>0.93</v>
       </c>
-      <c r="Y11" s="12">
-        <f>_xlfn.STDEV.P(R11:X11)</f>
+      <c r="Y11" s="10">
+        <f t="shared" si="2"/>
         <v>9.735271449943303E-2</v>
       </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12">
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10">
         <v>89</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AB11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1422,59 +1422,59 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="R13" s="4" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="1"/>
@@ -1522,43 +1522,43 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>0.96</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.94</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.95</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>0.9</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>0.88</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.91</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.92</v>
       </c>
       <c r="I16" s="2"/>
@@ -1606,18 +1606,18 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>0.81</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
         <v>0.98</v>
@@ -1628,86 +1628,86 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="J18" s="2"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="J19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="2"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="J21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="J22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="J23" s="2"/>
       <c r="N23" s="2"/>
     </row>
@@ -1715,281 +1715,281 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>0.97</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>0.95</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>0.88</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>0.99</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <v>0.85</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <v>0.92</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>0.98</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>0.95</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>0.9</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>0.84</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>0.92</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>0.82</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <v>0.89</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>0.8</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>0.98</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>0.99</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>0.97</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <v>0.9</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <v>0.96</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>0.95</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>0.98</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>0.97</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <v>0.92</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>0.95</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>0.97</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>0.97</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>0.93</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>0.99</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.87</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>0.94</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="7">
         <v>0.99</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>0.99</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>0.98</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>0.96</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>0.99</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <v>0.92</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>0.95</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <v>0.99</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>0.97</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>0.98</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>0.94</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <v>0.99</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>0.9</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>0.95</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>0.99</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>0.99</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>0.97</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>0.99</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>0.92</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>0.96</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>0.98</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>0.98</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>0.98</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>0.98</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.95</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>0.96</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>0.99</v>
       </c>
     </row>

--- a/Result/Results.xlsx
+++ b/Result/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitCloneProject\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7659E2-C8C3-42F6-88A7-3473296489AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EB4E1-21FB-4FD9-A17E-2501EDBEF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -170,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -211,6 +210,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -501,57 +506,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="16"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="3"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="V1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+    </row>
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -579,60 +589,65 @@
       <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="9" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -661,65 +676,70 @@
         <f t="shared" ref="I3:I11" si="0">_xlfn.STDEV.P(B3:H3)</f>
         <v>0.16269415402866197</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
         <v>0.39</v>
       </c>
-      <c r="K3" s="10">
+      <c r="M3" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L3" s="10">
+      <c r="N3" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M3" s="10">
+      <c r="O3" s="10">
         <v>0.23</v>
       </c>
-      <c r="N3" s="10">
+      <c r="P3" s="10">
         <v>0.35</v>
       </c>
-      <c r="O3" s="10">
+      <c r="Q3" s="10">
         <v>0.95</v>
       </c>
-      <c r="P3" s="10">
+      <c r="R3" s="10">
         <v>0.75</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q11" si="1">_xlfn.STDEV.P(J3:P3)</f>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S11" si="1">_xlfn.STDEV.P(L3:R3)</f>
         <v>0.22924899572477167</v>
       </c>
-      <c r="R3" s="10">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10">
         <v>0.67</v>
       </c>
-      <c r="S3" s="10">
+      <c r="W3" s="10">
         <v>0.63</v>
       </c>
-      <c r="T3" s="10">
+      <c r="X3" s="10">
         <v>0.54</v>
       </c>
-      <c r="U3" s="10">
+      <c r="Y3" s="10">
         <v>0.83</v>
       </c>
-      <c r="V3" s="10">
+      <c r="Z3" s="10">
         <v>0.63</v>
       </c>
-      <c r="W3" s="10">
+      <c r="AA3" s="10">
         <v>0.74</v>
       </c>
-      <c r="X3" s="10">
+      <c r="AB3" s="10">
         <v>0.86</v>
       </c>
-      <c r="Y3" s="10">
-        <f t="shared" ref="Y3:Y11" si="2">_xlfn.STDEV.P(R3:X3)</f>
+      <c r="AC3" s="10">
+        <f t="shared" ref="AC3:AC11" si="2">_xlfn.STDEV.P(V3:AB3)</f>
         <v>0.10717142476291988</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10">
         <v>70</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -748,65 +768,70 @@
         <f t="shared" si="0"/>
         <v>0.19934586905728469</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
         <v>0.35</v>
       </c>
-      <c r="K4" s="10">
+      <c r="M4" s="10">
         <v>0.31</v>
       </c>
-      <c r="L4" s="10">
+      <c r="N4" s="10">
         <v>0.49</v>
       </c>
-      <c r="M4" s="10">
+      <c r="O4" s="10">
         <v>0.08</v>
       </c>
-      <c r="N4" s="10">
+      <c r="P4" s="10">
         <v>0.34</v>
       </c>
-      <c r="O4" s="10">
+      <c r="Q4" s="10">
         <v>0.94</v>
       </c>
-      <c r="P4" s="10">
+      <c r="R4" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="S4" s="10">
         <f t="shared" si="1"/>
         <v>0.27055498516937365</v>
       </c>
-      <c r="R4" s="10">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10">
         <v>0.51</v>
       </c>
-      <c r="S4" s="10">
+      <c r="W4" s="10">
         <v>0.49</v>
       </c>
-      <c r="T4" s="10">
+      <c r="X4" s="10">
         <v>0.35</v>
       </c>
-      <c r="U4" s="10">
+      <c r="Y4" s="10">
         <v>0.76</v>
       </c>
-      <c r="V4" s="10">
+      <c r="Z4" s="10">
         <v>0.47</v>
       </c>
-      <c r="W4" s="10">
+      <c r="AA4" s="10">
         <v>0.63</v>
       </c>
-      <c r="X4" s="10">
+      <c r="AB4" s="10">
         <v>0.48</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="AC4" s="10">
         <f t="shared" si="2"/>
         <v>0.12150417814265652</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10">
         <v>57</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
@@ -836,64 +861,78 @@
         <v>0.10125740083811073</v>
       </c>
       <c r="J5" s="10">
+        <f>AVERAGE(B5:H5)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
         <v>0.71</v>
       </c>
-      <c r="K5" s="10">
+      <c r="M5" s="10">
         <v>0.76</v>
       </c>
-      <c r="L5" s="10">
+      <c r="N5" s="10">
         <v>0.73</v>
       </c>
-      <c r="M5" s="10">
+      <c r="O5" s="10">
         <v>0.61</v>
       </c>
-      <c r="N5" s="10">
+      <c r="P5" s="10">
         <v>0.77</v>
       </c>
-      <c r="O5" s="10">
+      <c r="Q5" s="10">
         <v>0.93</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="10">
         <v>0.65</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="S5" s="10">
         <f t="shared" si="1"/>
         <v>9.5126124654779626E-2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="T5" s="10">
+        <f>AVERAGE(L5:R5)</f>
+        <v>0.73714285714285721</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10">
         <v>0.82</v>
       </c>
-      <c r="S5" s="10">
+      <c r="W5" s="10">
         <v>0.73</v>
       </c>
-      <c r="T5" s="10">
+      <c r="X5" s="10">
         <v>0.83</v>
       </c>
-      <c r="U5" s="10">
+      <c r="Y5" s="10">
         <v>0.92</v>
       </c>
-      <c r="V5" s="10">
+      <c r="Z5" s="10">
         <v>0.53</v>
       </c>
-      <c r="W5" s="10">
+      <c r="AA5" s="10">
         <v>0.93</v>
       </c>
-      <c r="X5" s="10">
+      <c r="AB5" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="AC5" s="10">
         <f t="shared" si="2"/>
         <v>0.13424011383809745</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10">
+      <c r="AD5" s="10">
+        <f>AVERAGE(V5:AB5)</f>
+        <v>0.81285714285714283</v>
+      </c>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10">
         <v>86</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AG5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -922,65 +961,70 @@
         <f t="shared" si="0"/>
         <v>8.8709569692914034E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>0.79</v>
       </c>
-      <c r="K6" s="10">
+      <c r="M6" s="10">
         <v>0.8</v>
       </c>
-      <c r="L6" s="10">
+      <c r="N6" s="10">
         <v>0.8</v>
       </c>
-      <c r="M6" s="10">
+      <c r="O6" s="10">
         <v>0.67</v>
       </c>
-      <c r="N6" s="10">
+      <c r="P6" s="10">
         <v>0.68</v>
       </c>
-      <c r="O6" s="10">
+      <c r="Q6" s="10">
         <v>0.91</v>
       </c>
-      <c r="P6" s="10">
+      <c r="R6" s="10">
         <v>1</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="S6" s="10">
         <f t="shared" si="1"/>
         <v>0.10898417784434698</v>
       </c>
-      <c r="R6" s="10">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10">
         <v>0.79</v>
       </c>
-      <c r="S6" s="10">
+      <c r="W6" s="10">
         <v>0.78</v>
       </c>
-      <c r="T6" s="10">
+      <c r="X6" s="10">
         <v>0.81</v>
       </c>
-      <c r="U6" s="10">
+      <c r="Y6" s="10">
         <v>0.83</v>
       </c>
-      <c r="V6" s="10">
+      <c r="Z6" s="10">
         <v>0.62</v>
       </c>
-      <c r="W6" s="10">
+      <c r="AA6" s="10">
         <v>0.92</v>
       </c>
-      <c r="X6" s="10">
+      <c r="AB6" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="AC6" s="10">
         <f t="shared" si="2"/>
         <v>9.5831484749991286E-2</v>
       </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10">
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10">
         <v>86</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AG6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1010,64 +1054,78 @@
         <v>0.14440589054636957</v>
       </c>
       <c r="J7" s="10">
+        <f>AVERAGE(B7:H7)</f>
+        <v>0.70428571428571407</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
         <v>0.5</v>
       </c>
-      <c r="K7" s="10">
+      <c r="M7" s="10">
         <v>0.62</v>
       </c>
-      <c r="L7" s="10">
+      <c r="N7" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M7" s="10">
+      <c r="O7" s="10">
         <v>0.6</v>
       </c>
-      <c r="N7" s="10">
+      <c r="P7" s="10">
         <v>0.42</v>
       </c>
-      <c r="O7" s="10">
+      <c r="Q7" s="10">
         <v>0.96</v>
       </c>
-      <c r="P7" s="10">
+      <c r="R7" s="10">
         <v>0.81</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="S7" s="10">
         <f t="shared" si="1"/>
         <v>0.17293386727006244</v>
       </c>
-      <c r="R7" s="10">
+      <c r="T7" s="10">
+        <f>AVERAGE(L7:R7)</f>
+        <v>0.63714285714285712</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10">
         <v>0.76</v>
       </c>
-      <c r="S7" s="10">
+      <c r="W7" s="10">
         <v>0.84</v>
       </c>
-      <c r="T7" s="10">
+      <c r="X7" s="10">
         <v>0.68</v>
       </c>
-      <c r="U7" s="10">
+      <c r="Y7" s="10">
         <v>1</v>
       </c>
-      <c r="V7" s="10">
+      <c r="Z7" s="10">
         <v>0.52</v>
       </c>
-      <c r="W7" s="10">
+      <c r="AA7" s="10">
         <v>0.82</v>
       </c>
-      <c r="X7" s="10">
+      <c r="AB7" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="AC7" s="10">
         <f t="shared" si="2"/>
         <v>0.14781400336854686</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10">
+      <c r="AD7" s="10">
+        <f>AVERAGE(V7:AB7)</f>
+        <v>0.79285714285714282</v>
+      </c>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10">
         <v>78</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AG7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1097,64 +1155,78 @@
         <v>0.1206952647736252</v>
       </c>
       <c r="J8" s="10">
+        <f>AVERAGE(B8:H8)</f>
+        <v>0.79571428571428571</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
         <v>0.71</v>
       </c>
-      <c r="K8" s="10">
+      <c r="M8" s="10">
         <v>0.82</v>
       </c>
-      <c r="L8" s="10">
+      <c r="N8" s="10">
         <v>0.68</v>
       </c>
-      <c r="M8" s="10">
+      <c r="O8" s="10">
         <v>0.92</v>
       </c>
-      <c r="N8" s="10">
+      <c r="P8" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O8" s="10">
+      <c r="Q8" s="10">
         <v>0.94</v>
       </c>
-      <c r="P8" s="10">
+      <c r="R8" s="10">
         <v>0.62</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="S8" s="10">
         <f t="shared" si="1"/>
         <v>0.13399664936414041</v>
       </c>
-      <c r="R8" s="10">
+      <c r="T8" s="10">
+        <f>AVERAGE(L8:R8)</f>
+        <v>0.75142857142857145</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10">
         <v>0.73</v>
       </c>
-      <c r="S8" s="10">
+      <c r="W8" s="10">
         <v>0.71</v>
       </c>
-      <c r="T8" s="10">
+      <c r="X8" s="10">
         <v>0.83</v>
       </c>
-      <c r="U8" s="10">
+      <c r="Y8" s="10">
         <v>0.92</v>
       </c>
-      <c r="V8" s="10">
+      <c r="Z8" s="10">
         <v>0.59</v>
       </c>
-      <c r="W8" s="10">
+      <c r="AA8" s="10">
         <v>0.9</v>
       </c>
-      <c r="X8" s="10">
+      <c r="AB8" s="10">
         <v>0.93</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="AC8" s="10">
         <f t="shared" si="2"/>
         <v>0.11909522857523652</v>
       </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10">
+      <c r="AD8" s="10">
+        <f>AVERAGE(V8:AB8)</f>
+        <v>0.80142857142857138</v>
+      </c>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10">
         <v>84</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -1184,64 +1256,78 @@
         <v>0.12224097980160735</v>
       </c>
       <c r="J9" s="10">
+        <f>AVERAGE(B9:H9)</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
         <v>0.66</v>
       </c>
-      <c r="K9" s="10">
+      <c r="M9" s="10">
         <v>0.72</v>
       </c>
-      <c r="L9" s="10">
+      <c r="N9" s="10">
         <v>0.6</v>
       </c>
-      <c r="M9" s="10">
+      <c r="O9" s="10">
         <v>0.82</v>
       </c>
-      <c r="N9" s="10">
+      <c r="P9" s="10">
         <v>0.5</v>
       </c>
-      <c r="O9" s="10">
+      <c r="Q9" s="10">
         <v>0.94</v>
       </c>
-      <c r="P9" s="10">
+      <c r="R9" s="10">
         <v>0.78</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="S9" s="10">
         <f t="shared" si="1"/>
         <v>0.13540566412654551</v>
       </c>
-      <c r="R9" s="10">
+      <c r="T9" s="10">
+        <f>AVERAGE(L9:R9)</f>
+        <v>0.71714285714285719</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10">
         <v>0.7</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="U9" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="V9" s="10">
-        <v>0.57999999999999996</v>
       </c>
       <c r="W9" s="10">
         <v>0.86</v>
       </c>
       <c r="X9" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="AB9" s="10">
         <v>1</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="AC9" s="10">
         <f t="shared" si="2"/>
         <v>0.12653949935873407</v>
       </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10">
+      <c r="AD9" s="10">
+        <f>AVERAGE(V9:AB9)</f>
+        <v>0.78142857142857147</v>
+      </c>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10">
         <v>81</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1270,65 +1356,70 @@
         <f t="shared" si="0"/>
         <v>8.2709227577886443E-2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
         <v>0.82</v>
       </c>
-      <c r="K10" s="10">
+      <c r="M10" s="10">
         <v>0.79</v>
       </c>
-      <c r="L10" s="10">
+      <c r="N10" s="10">
         <v>0.84</v>
       </c>
-      <c r="M10" s="10">
+      <c r="O10" s="10">
         <v>0.83</v>
       </c>
-      <c r="N10" s="7">
+      <c r="P10" s="7">
         <v>0.75</v>
       </c>
-      <c r="O10" s="11">
+      <c r="Q10" s="11">
         <v>0.92</v>
       </c>
-      <c r="P10" s="11">
+      <c r="R10" s="11">
         <v>0.93</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="S10" s="11">
         <f t="shared" si="1"/>
         <v>6.0474315681476376E-2</v>
       </c>
-      <c r="R10" s="10">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="10">
         <v>0.85</v>
       </c>
-      <c r="S10" s="10">
+      <c r="W10" s="10">
         <v>0.75</v>
       </c>
-      <c r="T10" s="10">
+      <c r="X10" s="10">
         <v>0.78</v>
       </c>
-      <c r="U10" s="10">
+      <c r="Y10" s="10">
         <v>0.83</v>
       </c>
-      <c r="V10" s="10">
+      <c r="Z10" s="10">
         <v>0.63</v>
       </c>
-      <c r="W10" s="10">
+      <c r="AA10" s="10">
         <v>0.96</v>
       </c>
-      <c r="X10" s="10">
+      <c r="AB10" s="10">
         <v>1</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="AC10" s="10">
         <f t="shared" si="2"/>
         <v>0.11654901745354916</v>
       </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10">
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10">
         <v>89</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AG10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1357,102 +1448,111 @@
         <f t="shared" si="0"/>
         <v>9.0711473522214342E-2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>0.73</v>
       </c>
-      <c r="K11" s="10">
+      <c r="M11" s="10">
         <v>0.83</v>
       </c>
-      <c r="L11" s="10">
+      <c r="N11" s="10">
         <v>0.88</v>
       </c>
-      <c r="M11" s="10">
+      <c r="O11" s="10">
         <v>0.62</v>
       </c>
-      <c r="N11" s="7">
+      <c r="P11" s="7">
         <v>0.8</v>
       </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="11">
         <v>0.93</v>
       </c>
-      <c r="P11" s="11">
+      <c r="R11" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="S11" s="11">
         <f t="shared" si="1"/>
         <v>0.12315578321286987</v>
       </c>
-      <c r="R11" s="11">
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="11">
         <v>0.82</v>
       </c>
-      <c r="S11" s="11">
+      <c r="W11" s="11">
         <v>0.84</v>
       </c>
-      <c r="T11" s="11">
+      <c r="X11" s="11">
         <v>0.81</v>
       </c>
-      <c r="U11" s="11">
+      <c r="Y11" s="11">
         <v>0.67</v>
       </c>
-      <c r="V11" s="11">
+      <c r="Z11" s="11">
         <v>0.7</v>
       </c>
-      <c r="W11" s="11">
+      <c r="AA11" s="11">
         <v>0.95</v>
       </c>
-      <c r="X11" s="11">
+      <c r="AB11" s="11">
         <v>0.93</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="AC11" s="10">
         <f t="shared" si="2"/>
         <v>9.735271449943303E-2</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10">
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10">
         <v>89</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AG11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="R13" s="16" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="V13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
@@ -1478,50 +1578,52 @@
         <v>8</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" t="s">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>4</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>6</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>7</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>8</v>
       </c>
-      <c r="R14" t="s">
+      <c r="V14" t="s">
         <v>2</v>
       </c>
-      <c r="S14" t="s">
+      <c r="W14" t="s">
         <v>3</v>
       </c>
-      <c r="T14" t="s">
+      <c r="X14" t="s">
         <v>4</v>
       </c>
-      <c r="U14" t="s">
+      <c r="Y14" t="s">
         <v>5</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Z14" t="s">
         <v>6</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AA14" t="s">
         <v>7</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AB14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -1534,9 +1636,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1562,72 +1666,117 @@
         <v>0.92</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1">
         <v>0.95</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.91</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.88</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.9</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>0.83</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.72</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.91</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>0.73</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>0.71</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>0.65</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>0.83</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>0.67</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>0.76</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <f>AVERAGE(V16:AB16)</f>
+        <v>0.71999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
+        <v>0.98</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
+        <f>AVERAGE(B17:H17)</f>
+        <v>0.96</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <v>0.98</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="R17">
+      <c r="P17" s="2"/>
+      <c r="V17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>0.85</v>
+      </c>
+      <c r="X17">
+        <v>0.89</v>
+      </c>
+      <c r="Y17">
+        <v>0.95</v>
+      </c>
+      <c r="Z17">
+        <v>0.75</v>
+      </c>
+      <c r="AA17">
+        <v>0.89</v>
+      </c>
+      <c r="AB17">
+        <v>0.96</v>
+      </c>
+      <c r="AD17">
+        <f>AVERAGE(V17:AB17)</f>
+        <v>0.88428571428571423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1638,52 +1787,181 @@
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(B19:H19)</f>
+        <v>0.9542857142857144</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="V19">
+        <v>0.86</v>
+      </c>
+      <c r="W19">
+        <v>0.9</v>
+      </c>
+      <c r="X19">
+        <v>0.8</v>
+      </c>
+      <c r="Y19">
+        <v>0.99</v>
+      </c>
+      <c r="Z19">
+        <v>0.71</v>
+      </c>
+      <c r="AA19">
+        <v>0.87</v>
+      </c>
+      <c r="AB19">
+        <v>0.96</v>
+      </c>
+      <c r="AD19">
+        <f>AVERAGE(V19:AB19)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(B20:H20)</f>
+        <v>0.95285714285714285</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="V20">
+        <v>0.85</v>
+      </c>
+      <c r="W20">
+        <v>0.84</v>
+      </c>
+      <c r="X20">
+        <v>0.88</v>
+      </c>
+      <c r="Y20">
+        <v>0.95</v>
+      </c>
+      <c r="Z20">
+        <v>0.76</v>
+      </c>
+      <c r="AA20">
+        <v>0.89</v>
+      </c>
+      <c r="AB20">
+        <v>0.96</v>
+      </c>
+      <c r="AD20">
+        <f>AVERAGE(V20:AB20)</f>
+        <v>0.87571428571428556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="J21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(B21:H21)</f>
+        <v>0.95428571428571429</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="V21">
+        <v>0.84</v>
+      </c>
+      <c r="W21">
+        <v>0.92</v>
+      </c>
+      <c r="X21">
+        <v>0.83</v>
+      </c>
+      <c r="Y21">
+        <v>0.87</v>
+      </c>
+      <c r="Z21">
+        <v>0.75</v>
+      </c>
+      <c r="AA21">
+        <v>0.87</v>
+      </c>
+      <c r="AB21">
+        <v>0.99</v>
+      </c>
+      <c r="AD21">
+        <f>AVERAGE(V21:AB21)</f>
+        <v>0.86714285714285722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -1694,10 +1972,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -1708,25 +1986,25 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
@@ -1751,9 +2029,9 @@
       <c r="H26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
@@ -1778,9 +2056,9 @@
       <c r="H27" s="7">
         <v>0.98</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>13</v>
       </c>
@@ -1805,9 +2083,9 @@
       <c r="H28" s="7">
         <v>0.8</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>14</v>
       </c>
@@ -1832,9 +2110,13 @@
       <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>AVERAGE(B29:H29)</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -1859,9 +2141,9 @@
       <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
@@ -1886,9 +2168,13 @@
       <c r="H31" s="7">
         <v>0.99</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>AVERAGE(B31:H31)</f>
+        <v>0.9514285714285714</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>17</v>
       </c>
@@ -1913,9 +2199,13 @@
       <c r="H32" s="7">
         <v>0.99</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>AVERAGE(B32:H32)</f>
+        <v>0.96857142857142864</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>18</v>
       </c>
@@ -1940,8 +2230,12 @@
       <c r="H33" s="7">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>AVERAGE(B33:H33)</f>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>19</v>
       </c>
@@ -1967,7 +2261,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
@@ -1997,12 +2291,12 @@
   <mergeCells count="8">
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="V13:AB13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Result/Results.xlsx
+++ b/Result/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitCloneProject\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EB4E1-21FB-4FD9-A17E-2501EDBEF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F1C0CA-E2BD-4205-AF67-155B40C4DBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>ROC AUC Score</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +168,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -180,51 +224,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,1006 +590,1057 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="18" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="3" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="8"/>
+      <c r="AD2" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="AG2" s="18"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>0.49</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <v>0.59</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <v>0.36</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>0.45</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <v>0.83</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>0.8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I11" si="0">_xlfn.STDEV.P(B3:H3)</f>
         <v>0.16269415402866197</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10">
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J4" si="1">AVERAGE(B3:H3)</f>
+        <v>0.58142857142857152</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14">
         <v>0.39</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="14">
         <v>0.23</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="14">
         <v>0.35</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="14">
         <v>0.95</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="14">
         <v>0.75</v>
       </c>
-      <c r="S3" s="10">
-        <f t="shared" ref="S3:S11" si="1">_xlfn.STDEV.P(L3:R3)</f>
+      <c r="S3" s="14">
+        <f t="shared" ref="S3:S11" si="2">_xlfn.STDEV.P(L3:R3)</f>
         <v>0.22924899572477167</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10">
+      <c r="T3" s="14">
+        <f t="shared" ref="T3:T4" si="3">AVERAGE(L3:R3)</f>
+        <v>0.54142857142857148</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="14">
         <v>0.67</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="14">
         <v>0.63</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="14">
         <v>0.54</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="14">
         <v>0.83</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="14">
         <v>0.63</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="14">
         <v>0.74</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="14">
         <v>0.86</v>
       </c>
-      <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC11" si="2">_xlfn.STDEV.P(V3:AB3)</f>
+      <c r="AC3" s="14">
+        <f t="shared" ref="AC3:AC11" si="4">_xlfn.STDEV.P(V3:AB3)</f>
         <v>0.10717142476291988</v>
       </c>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10">
+      <c r="AD3" s="14">
+        <f t="shared" ref="AD3:AD10" si="5">AVERAGE(V3:AB3)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="14">
         <v>70</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>0.42</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>0.38</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <v>0.41</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="14">
         <v>0.15</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>0.4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <v>0.75</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="14">
         <v>0.75</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
         <v>0.19934586905728469</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10">
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.46571428571428569</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14">
         <v>0.35</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="14">
         <v>0.31</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="14">
         <v>0.49</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="14">
         <v>0.08</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="14">
         <v>0.34</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="14">
         <v>0.94</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="14">
         <v>0.08</v>
       </c>
-      <c r="S4" s="10">
-        <f t="shared" si="1"/>
+      <c r="S4" s="14">
+        <f t="shared" si="2"/>
         <v>0.27055498516937365</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10">
+      <c r="T4" s="14">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="14">
         <v>0.51</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="14">
         <v>0.49</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="14">
         <v>0.35</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="14">
         <v>0.76</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="14">
         <v>0.47</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="14">
         <v>0.63</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="14">
         <v>0.48</v>
       </c>
-      <c r="AC4" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC4" s="14">
+        <f t="shared" si="4"/>
         <v>0.12150417814265652</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10">
+      <c r="AD4" s="14">
+        <f t="shared" si="5"/>
+        <v>0.52714285714285714</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="14">
         <v>57</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AG4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="14">
         <v>0.76</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>0.74</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="14">
         <v>0.78</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="14">
         <v>0.73</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="14">
         <v>0.63</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="14">
         <v>0.93</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="14">
         <v>0.93</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="14">
         <f t="shared" si="0"/>
         <v>0.10125740083811073</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="14">
         <f>AVERAGE(B5:H5)</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10">
+      <c r="K5" s="5"/>
+      <c r="L5" s="14">
         <v>0.71</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="14">
         <v>0.76</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="14">
         <v>0.73</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="14">
         <v>0.61</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="14">
         <v>0.77</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="14">
         <v>0.93</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="14">
         <v>0.65</v>
       </c>
-      <c r="S5" s="10">
-        <f t="shared" si="1"/>
+      <c r="S5" s="14">
+        <f t="shared" si="2"/>
         <v>9.5126124654779626E-2</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="14">
         <f>AVERAGE(L5:R5)</f>
         <v>0.73714285714285721</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10">
+      <c r="U5" s="5"/>
+      <c r="V5" s="14">
         <v>0.82</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="14">
         <v>0.73</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="14">
         <v>0.83</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="14">
         <v>0.92</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="14">
         <v>0.53</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="14">
         <v>0.93</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="14">
         <v>0.93</v>
       </c>
-      <c r="AC5" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC5" s="14">
+        <f t="shared" si="4"/>
         <v>0.13424011383809745</v>
       </c>
-      <c r="AD5" s="10">
-        <f>AVERAGE(V5:AB5)</f>
+      <c r="AD5" s="14">
+        <f t="shared" si="5"/>
         <v>0.81285714285714283</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="14">
         <v>86</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>0.79</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>0.79</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="14">
         <v>0.74</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="14">
         <v>0.65</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="14">
         <v>0.92</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="14">
         <v>0.92</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="14">
         <f t="shared" si="0"/>
         <v>8.8709569692914034E-2</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10">
+      <c r="J6" s="14">
+        <f>AVERAGE(B6:H6)</f>
+        <v>0.80142857142857149</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14">
         <v>0.79</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="14">
         <v>0.8</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="14">
         <v>0.8</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="14">
         <v>0.67</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="14">
         <v>0.68</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="14">
         <v>0.91</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="14">
         <v>1</v>
       </c>
-      <c r="S6" s="10">
-        <f t="shared" si="1"/>
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
         <v>0.10898417784434698</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10">
+      <c r="T6" s="14">
+        <f t="shared" ref="T6:T11" si="6">AVERAGE(L6:R6)</f>
+        <v>0.80714285714285716</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="14">
         <v>0.79</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="14">
         <v>0.78</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="14">
         <v>0.81</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="14">
         <v>0.83</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="14">
         <v>0.62</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="14">
         <v>0.92</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="14">
         <v>0.93</v>
       </c>
-      <c r="AC6" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC6" s="14">
+        <f t="shared" si="4"/>
         <v>9.5831484749991286E-2</v>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10">
+      <c r="AD6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.81142857142857139</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="14">
         <v>86</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AG6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>0.6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="14">
         <v>0.72</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="14">
         <v>0.61</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>0.75</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="14">
         <v>0.47</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="14">
         <v>0.89</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="14">
         <v>0.89</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>0.14440589054636957</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="14">
         <f>AVERAGE(B7:H7)</f>
         <v>0.70428571428571407</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10">
+      <c r="K7" s="5"/>
+      <c r="L7" s="14">
         <v>0.5</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="14">
         <v>0.62</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="14">
         <v>0.6</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="14">
         <v>0.42</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="14">
         <v>0.96</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="14">
         <v>0.81</v>
       </c>
-      <c r="S7" s="10">
-        <f t="shared" si="1"/>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
         <v>0.17293386727006244</v>
       </c>
-      <c r="T7" s="10">
-        <f>AVERAGE(L7:R7)</f>
+      <c r="T7" s="14">
+        <f t="shared" si="6"/>
         <v>0.63714285714285712</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10">
+      <c r="U7" s="5"/>
+      <c r="V7" s="14">
         <v>0.76</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="14">
         <v>0.84</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="14">
         <v>0.68</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="14">
         <v>1</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="14">
         <v>0.52</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="14">
         <v>0.82</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="14">
         <v>0.93</v>
       </c>
-      <c r="AC7" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC7" s="14">
+        <f t="shared" si="4"/>
         <v>0.14781400336854686</v>
       </c>
-      <c r="AD7" s="10">
-        <f>AVERAGE(V7:AB7)</f>
+      <c r="AD7" s="14">
+        <f t="shared" si="5"/>
         <v>0.79285714285714282</v>
       </c>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="14">
         <v>78</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="14">
         <v>0.72</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="14">
         <v>0.76</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <v>0.75</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="14">
         <v>0.92</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="14">
         <v>0.92</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="14">
         <v>0.92</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>0.1206952647736252</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="14">
         <f>AVERAGE(B8:H8)</f>
         <v>0.79571428571428571</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10">
+      <c r="K8" s="5"/>
+      <c r="L8" s="14">
         <v>0.71</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="14">
         <v>0.82</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="14">
         <v>0.68</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="14">
         <v>0.92</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="14">
         <v>0.94</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="14">
         <v>0.62</v>
       </c>
-      <c r="S8" s="10">
-        <f t="shared" si="1"/>
+      <c r="S8" s="14">
+        <f t="shared" si="2"/>
         <v>0.13399664936414041</v>
       </c>
-      <c r="T8" s="10">
-        <f>AVERAGE(L8:R8)</f>
+      <c r="T8" s="14">
+        <f t="shared" si="6"/>
         <v>0.75142857142857145</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10">
+      <c r="U8" s="5"/>
+      <c r="V8" s="14">
         <v>0.73</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="14">
         <v>0.71</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="14">
         <v>0.83</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="14">
         <v>0.92</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="14">
         <v>0.59</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="14">
         <v>0.9</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="14">
         <v>0.93</v>
       </c>
-      <c r="AC8" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC8" s="14">
+        <f t="shared" si="4"/>
         <v>0.11909522857523652</v>
       </c>
-      <c r="AD8" s="10">
-        <f>AVERAGE(V8:AB8)</f>
+      <c r="AD8" s="14">
+        <f t="shared" si="5"/>
         <v>0.80142857142857138</v>
       </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="14">
         <v>84</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="14">
         <v>0.68</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14">
         <v>0.79</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <v>0.66</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>0.78</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <v>0.54</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="14">
         <v>0.9</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="14">
         <v>0.9</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>0.12224097980160735</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="14">
         <f>AVERAGE(B9:H9)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10">
+      <c r="K9" s="5"/>
+      <c r="L9" s="14">
         <v>0.66</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="14">
         <v>0.72</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="14">
         <v>0.6</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="14">
         <v>0.82</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="14">
         <v>0.94</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="14">
         <v>0.78</v>
       </c>
-      <c r="S9" s="10">
-        <f t="shared" si="1"/>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
         <v>0.13540566412654551</v>
       </c>
-      <c r="T9" s="10">
-        <f>AVERAGE(L9:R9)</f>
+      <c r="T9" s="14">
+        <f t="shared" si="6"/>
         <v>0.71714285714285719</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10">
+      <c r="U9" s="5"/>
+      <c r="V9" s="14">
         <v>0.7</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="14">
         <v>0.86</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="14">
         <v>0.72</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="14">
         <v>0.75</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="14">
         <v>0.86</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="14">
         <v>1</v>
       </c>
-      <c r="AC9" s="10">
-        <f t="shared" si="2"/>
+      <c r="AC9" s="14">
+        <f t="shared" si="4"/>
         <v>0.12653949935873407</v>
       </c>
-      <c r="AD9" s="10">
-        <f>AVERAGE(V9:AB9)</f>
+      <c r="AD9" s="14">
+        <f t="shared" si="5"/>
         <v>0.78142857142857147</v>
       </c>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="14">
         <v>81</v>
       </c>
-      <c r="AG9" s="13" t="s">
+      <c r="AG9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="14">
         <v>0.84</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14">
         <v>0.77</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="14">
         <v>0.81</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="14">
         <v>0.83</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="14">
         <v>0.69</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="14">
         <v>0.94</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="14">
         <v>0.94</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>8.2709227577886443E-2</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10">
+      <c r="J10" s="14">
+        <f t="shared" ref="J10:J11" si="7">AVERAGE(B10:H10)</f>
+        <v>0.83142857142857152</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14">
         <v>0.82</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="14">
         <v>0.79</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="14">
         <v>0.84</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="14">
         <v>0.83</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="15">
         <v>0.75</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="16">
         <v>0.92</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="16">
         <v>0.93</v>
       </c>
-      <c r="S10" s="11">
-        <f t="shared" si="1"/>
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
         <v>6.0474315681476376E-2</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10">
+      <c r="T10" s="14">
+        <f t="shared" si="6"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="14">
         <v>0.85</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="14">
         <v>0.75</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="14">
         <v>0.78</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="14">
         <v>0.83</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="14">
         <v>0.63</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="14">
         <v>0.96</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="14">
         <v>1</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="14">
+        <f t="shared" si="4"/>
+        <v>0.11654901745354916</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="5"/>
+        <v>0.82857142857142851</v>
+      </c>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="14">
+        <v>89</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10501700542565255</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="7"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="S11" s="16">
         <f t="shared" si="2"/>
-        <v>0.11654901745354916</v>
-      </c>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10">
-        <v>89</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="C11" s="10">
+        <v>8.6920089972434569E-2</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="6"/>
+        <v>0.8114285714285715</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="X11" s="16">
         <v>0.83</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
-        <v>9.0711473522214342E-2</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10">
-        <v>0.73</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="Y11" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z11" s="16">
         <v>0.62</v>
       </c>
-      <c r="P11" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0.93</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.12315578321286987</v>
-      </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="11">
-        <v>0.82</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="X11" s="11">
-        <v>0.81</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0.93</v>
-      </c>
-      <c r="AC11" s="10">
-        <f t="shared" si="2"/>
-        <v>9.735271449943303E-2</v>
-      </c>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10">
-        <v>89</v>
-      </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AA11" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.14839274969911781</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" ref="AD6:AD11" si="8">AVERAGE(V11:AB11)</f>
+        <v>0.81714285714285728</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AG11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1520,771 +1653,953 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="V13" s="18" t="s">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="V13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" t="s">
+      <c r="L14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V14" t="s">
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="V14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="16">
         <v>0.96</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="16">
         <v>0.94</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="15">
         <v>0.95</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="16">
         <v>0.9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>0.88</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="16">
         <v>0.91</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="15">
         <v>0.92</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21">
+        <f>AVERAGE(B16:H16)</f>
+        <v>0.92285714285714282</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="1">
+      <c r="L16" s="20">
         <v>0.95</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="14">
         <v>0.91</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="14">
         <v>0.88</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="14">
         <v>0.9</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="21">
         <v>0.83</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="14">
         <v>0.72</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="14">
         <v>0.91</v>
       </c>
-      <c r="V16">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="V16" s="18">
         <v>0.73</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="18">
         <v>0.71</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="18">
         <v>0.65</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="18">
         <v>0.83</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="18">
         <v>0.67</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="18">
         <v>0.76</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="18">
         <v>0.69</v>
       </c>
-      <c r="AD16">
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18">
         <f>AVERAGE(V16:AB16)</f>
         <v>0.71999999999999986</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="16">
         <v>0.98</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="16">
         <v>0.98</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <v>0.96</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="16">
         <v>0.99</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="15">
         <v>0.97</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="16">
         <v>0.85</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="15">
         <v>0.99</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21">
         <f>AVERAGE(B17:H17)</f>
         <v>0.96</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="L17" s="21">
         <v>0.98</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="V17">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="V17" s="18">
         <v>0.9</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="18">
         <v>0.85</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="18">
         <v>0.89</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="18">
         <v>0.95</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="18">
         <v>0.75</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="18">
         <v>0.89</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="18">
         <v>0.96</v>
       </c>
-      <c r="AD17">
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18">
         <f>AVERAGE(V17:AB17)</f>
         <v>0.88428571428571423</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="L18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="16">
         <v>0.97</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="16">
         <v>0.97</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="15">
         <v>0.93</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="16">
         <v>0.99</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="15">
         <v>0.9</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="16">
         <v>0.93</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="15">
         <v>0.99</v>
       </c>
-      <c r="J19">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
         <f>AVERAGE(B19:H19)</f>
         <v>0.9542857142857144</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="V19">
+      <c r="L19" s="19"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="V19" s="18">
         <v>0.86</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="18">
         <v>0.9</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="18">
         <v>0.8</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="18">
         <v>0.99</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="18">
         <v>0.71</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="18">
         <v>0.87</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="18">
         <v>0.96</v>
       </c>
-      <c r="AD19">
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18">
         <f>AVERAGE(V19:AB19)</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="16">
         <v>0.98</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="16">
         <v>0.99</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="15">
         <v>0.95</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="16">
         <v>0.99</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="15">
         <v>0.94</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="16">
         <v>0.9</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="15">
         <v>0.92</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
         <f>AVERAGE(B20:H20)</f>
         <v>0.95285714285714285</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="P20" s="1"/>
-      <c r="V20">
+      <c r="L20" s="19"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="V20" s="18">
         <v>0.85</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="18">
         <v>0.84</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="18">
         <v>0.88</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="18">
         <v>0.95</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="18">
         <v>0.76</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="18">
         <v>0.89</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="18">
         <v>0.96</v>
       </c>
-      <c r="AD20">
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18">
         <f>AVERAGE(V20:AB20)</f>
         <v>0.87571428571428556</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="16">
         <v>0.98</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="16">
         <v>0.98</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="29">
         <v>0.94</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="16">
         <v>0.99</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="15">
         <v>0.92</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="16">
         <v>0.88</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="16">
         <v>0.99</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
         <f>AVERAGE(B21:H21)</f>
         <v>0.95428571428571429</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="V21">
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="V21" s="18">
         <v>0.84</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="18">
         <v>0.92</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="18">
         <v>0.83</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="18">
         <v>0.87</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="18">
         <v>0.75</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="18">
         <v>0.87</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="18">
         <v>0.99</v>
       </c>
-      <c r="AD21">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18">
         <f>AVERAGE(V21:AB21)</f>
         <v>0.86714285714285722</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="L22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="31"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="L23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="32"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="16">
         <v>0.97</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="16">
         <v>0.95</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="15">
         <v>0.88</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="16">
         <v>0.99</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="29">
         <v>0.85</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="16">
         <v>0.92</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="15">
         <v>0.98</v>
       </c>
+      <c r="I27" s="18">
+        <f t="shared" ref="I26:I35" si="9">AVERAGE(B27:H27)</f>
+        <v>0.93428571428571416</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" ref="J22:J35" si="10">AVERAGE(B27:H27)</f>
+        <v>0.93428571428571416</v>
+      </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="16">
         <v>0.95</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="16">
         <v>0.9</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="15">
         <v>0.84</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="16">
         <v>0.92</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="15">
         <v>0.82</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="16">
         <v>0.89</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="15">
         <v>0.8</v>
       </c>
+      <c r="I28" s="18">
+        <f t="shared" si="9"/>
+        <v>0.87428571428571422</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="10"/>
+        <v>0.87428571428571422</v>
+      </c>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="16">
         <v>0.98</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="16">
         <v>0.99</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="15">
         <v>0.97</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="15">
         <v>0.9</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="16">
         <v>0.96</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="15">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="18">
         <f>AVERAGE(B29:H29)</f>
         <v>0.97142857142857142</v>
       </c>
+      <c r="J29" s="14">
+        <f t="shared" si="10"/>
+        <v>0.97142857142857142</v>
+      </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="16">
         <v>0.95</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="16">
         <v>0.98</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="15">
         <v>0.97</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="15">
         <v>0.92</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="16">
         <v>0.95</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="15">
         <v>1</v>
       </c>
+      <c r="I30" s="18">
+        <f t="shared" si="9"/>
+        <v>0.96714285714285719</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="10"/>
+        <v>0.96714285714285719</v>
+      </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="16">
         <v>0.97</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="16">
         <v>0.97</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="15">
         <v>0.93</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="16">
         <v>0.99</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>0.87</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="16">
         <v>0.94</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="15">
         <v>0.99</v>
       </c>
-      <c r="I31">
-        <f>AVERAGE(B31:H31)</f>
+      <c r="I31" s="18">
+        <f t="shared" si="9"/>
         <v>0.9514285714285714</v>
       </c>
+      <c r="J31" s="14">
+        <f t="shared" si="10"/>
+        <v>0.9514285714285714</v>
+      </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="16">
         <v>0.99</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="16">
         <v>0.98</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="15">
         <v>0.96</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="16">
         <v>0.99</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="15">
         <v>0.92</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="16">
         <v>0.95</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="15">
         <v>0.99</v>
       </c>
-      <c r="I32">
-        <f>AVERAGE(B32:H32)</f>
+      <c r="I32" s="18">
+        <f t="shared" si="9"/>
         <v>0.96857142857142864</v>
       </c>
+      <c r="J32" s="14">
+        <f t="shared" si="10"/>
+        <v>0.96857142857142864</v>
+      </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="16">
         <v>0.97</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="16">
         <v>0.98</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="29">
         <v>0.94</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="16">
         <v>0.99</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <v>0.9</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="16">
         <v>0.95</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="15">
         <v>0.99</v>
       </c>
-      <c r="I33">
-        <f>AVERAGE(B33:H33)</f>
+      <c r="I33" s="18">
+        <f t="shared" si="9"/>
         <v>0.96000000000000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="J33" s="14">
+        <f t="shared" si="10"/>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="16">
         <v>0.99</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="16">
         <v>0.99</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="15">
         <v>0.97</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="16">
         <v>0.99</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="15">
         <v>0.92</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="16">
         <v>0.96</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="15">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="I34" s="18">
+        <f t="shared" si="9"/>
+        <v>0.97285714285714298</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="10"/>
+        <v>0.97285714285714298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="16">
         <v>0.98</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="16">
         <v>0.98</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="15">
         <v>0.98</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="16">
         <v>0.98</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="15">
         <v>0.95</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="16">
         <v>0.96</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="15">
         <v>0.99</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="9"/>
+        <v>0.97428571428571431</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="10"/>
+        <v>0.97428571428571431</v>
       </c>
     </row>
   </sheetData>
